--- a/TestResources/HappyDay/Correction_factors_TG.xlsx
+++ b/TestResources/HappyDay/Correction_factors_TG.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Git\GitHub\Spectrotool\TestResources\HappyDay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842EEE2-C8CD-41F9-8501-8DD42F020568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A14E2-F58B-4204-8C01-9A28178E77A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-33465" yWindow="12750" windowWidth="28740" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Wellington" sheetId="4" r:id="rId1"/>
-    <sheet name="EPA" sheetId="5" r:id="rId2"/>
-    <sheet name="VMM methode" sheetId="2" r:id="rId3"/>
+    <sheet name="VMM methode" sheetId="2" r:id="rId1"/>
+    <sheet name="Wellington" sheetId="4" r:id="rId2"/>
+    <sheet name="EPA" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -409,10 +409,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,11 +673,677 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661F4589-8440-47DD-AD7B-44918D0213FC}">
+  <dimension ref="A1:D43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.804898</v>
+      </c>
+      <c r="D2">
+        <f>(10*2000)/1000</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1.6261098</v>
+      </c>
+      <c r="D3">
+        <f>(10*1000)/1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.5940124</v>
+      </c>
+      <c r="D4">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.85661549999999997</v>
+      </c>
+      <c r="D5">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.46073239999999999</v>
+      </c>
+      <c r="D6">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.8117472</v>
+      </c>
+      <c r="D7">
+        <f>(10*250)/1000</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.71386539999999998</v>
+      </c>
+      <c r="D8">
+        <f>(10*250)/1000</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.76448240000000001</v>
+      </c>
+      <c r="D9">
+        <f>(10*250)/1000</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.75894320000000004</v>
+      </c>
+      <c r="D10">
+        <f>(10*250)/1000</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.5597618</v>
+      </c>
+      <c r="D11">
+        <f>(10*250)/1000</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.60130139999999999</v>
+      </c>
+      <c r="D12">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.13041050000000001</v>
+      </c>
+      <c r="D13">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.87276759999999998</v>
+      </c>
+      <c r="D14">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="2">
+        <v>9.4234999999999999E-2</v>
+      </c>
+      <c r="D15">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.97297699999999998</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:D43" si="0">(10*1000)/1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.93541099999999999</v>
+      </c>
+      <c r="D17">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.98116859999999995</v>
+      </c>
+      <c r="D18">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.910748</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.56781700000000002</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.58708559999999999</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.60482279999999999</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.1382076000000001</v>
+      </c>
+      <c r="D23">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.84014</v>
+      </c>
+      <c r="D24">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.80591183300000002</v>
+      </c>
+      <c r="D25">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.65535180000000004</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.74668520000000005</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.752</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.220757181</v>
+      </c>
+      <c r="D29">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4.3718669659999998</v>
+      </c>
+      <c r="D30">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.75948700000000002</v>
+      </c>
+      <c r="D31">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.1155120000000001</v>
+      </c>
+      <c r="D32">
+        <f>(10*250)/1000</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.93659899999999996</v>
+      </c>
+      <c r="D33">
+        <f>(10*250)/1000</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.0304519999999999</v>
+      </c>
+      <c r="D34">
+        <f>(10*250)/1000</f>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.0896796</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D37" si="1">(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.99351840000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.1566928000000001</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.97856960000000004</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.63118300000000005</v>
+      </c>
+      <c r="D39">
+        <f>(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.35683019999999999</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.952142881</v>
+      </c>
+      <c r="D41">
+        <f>(10*2000)/1000</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.83439399999999997</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ref="D42" si="2">(10*500)/1000</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.58026040000000001</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{932690E7-C14C-43FE-8E99-0DF1356DBD56}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -918,7 +1580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDBC6079-A992-466C-8D67-4DE28B29AD70}">
   <dimension ref="A1:D14"/>
   <sheetViews>
@@ -1132,670 +1794,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661F4589-8440-47DD-AD7B-44918D0213FC}">
-  <dimension ref="A1:D43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.36328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.804898</v>
-      </c>
-      <c r="D2">
-        <f>(10*2000)/1000</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.6261098</v>
-      </c>
-      <c r="D3">
-        <f>(10*1000)/1000</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.5940124</v>
-      </c>
-      <c r="D4">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.85661549999999997</v>
-      </c>
-      <c r="D5">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.46073239999999999</v>
-      </c>
-      <c r="D6">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.8117472</v>
-      </c>
-      <c r="D7">
-        <f>(10*250)/1000</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.71386539999999998</v>
-      </c>
-      <c r="D8">
-        <f>(10*250)/1000</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.76448240000000001</v>
-      </c>
-      <c r="D9">
-        <f>(10*250)/1000</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.75894320000000004</v>
-      </c>
-      <c r="D10">
-        <f>(10*250)/1000</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.5597618</v>
-      </c>
-      <c r="D11">
-        <f>(10*250)/1000</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.60130139999999999</v>
-      </c>
-      <c r="D12">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0.13041050000000001</v>
-      </c>
-      <c r="D13">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.87276759999999998</v>
-      </c>
-      <c r="D14">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="2">
-        <v>9.4234999999999999E-2</v>
-      </c>
-      <c r="D15">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.97297699999999998</v>
-      </c>
-      <c r="D16">
-        <f t="shared" ref="D16:D43" si="0">(10*1000)/1000</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0.93541099999999999</v>
-      </c>
-      <c r="D17">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0.98116859999999995</v>
-      </c>
-      <c r="D18">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0.910748</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0.56781700000000002</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.58708559999999999</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0.60482279999999999</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.1382076000000001</v>
-      </c>
-      <c r="D23">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0.84014</v>
-      </c>
-      <c r="D24">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.80591183300000002</v>
-      </c>
-      <c r="D25">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.65535180000000004</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0.74668520000000005</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.752</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0.220757181</v>
-      </c>
-      <c r="D29">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="2">
-        <v>4.3718669659999998</v>
-      </c>
-      <c r="D30">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.75948700000000002</v>
-      </c>
-      <c r="D31">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.1155120000000001</v>
-      </c>
-      <c r="D32">
-        <f>(10*250)/1000</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0.93659899999999996</v>
-      </c>
-      <c r="D33">
-        <f>(10*250)/1000</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.0304519999999999</v>
-      </c>
-      <c r="D34">
-        <f>(10*250)/1000</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.0896796</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ref="D35:D37" si="1">(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.99351840000000002</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1.1566928000000001</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.97856960000000004</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.63118300000000005</v>
-      </c>
-      <c r="D39">
-        <f>(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0.35683019999999999</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0.952142881</v>
-      </c>
-      <c r="D41">
-        <f>(10*2000)/1000</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C42" s="2">
-        <v>0.83439399999999997</v>
-      </c>
-      <c r="D42">
-        <f t="shared" ref="D42" si="2">(10*500)/1000</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" s="2">
-        <v>0.58026040000000001</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/TestResources/HappyDay/Correction_factors_TG.xlsx
+++ b/TestResources/HappyDay/Correction_factors_TG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Git\GitHub\Spectrotool\TestResources\HappyDay\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB9A14E2-F58B-4204-8C01-9A28178E77A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7876C091-9F1D-4478-97C9-B0BE138E2ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33465" yWindow="12750" windowWidth="28740" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="3800" windowWidth="19160" windowHeight="10230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VMM methode" sheetId="2" r:id="rId1"/>
@@ -307,13 +307,13 @@
     <t>PFBSA</t>
   </si>
   <si>
-    <t>MePFBSA</t>
-  </si>
-  <si>
     <t>PFHxSA</t>
   </si>
   <si>
     <t>Quantity ISTD</t>
+  </si>
+  <si>
+    <t>Me_PFBSA</t>
   </si>
 </sst>
 </file>
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661F4589-8440-47DD-AD7B-44918D0213FC}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -699,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1304,7 +1304,7 @@
     </row>
     <row r="42" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>44</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="43" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>63</v>
@@ -1362,7 +1362,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -1606,7 +1606,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
